--- a/Curso 20-21 Q2/GuiaCurso.xlsx
+++ b/Curso 20-21 Q2/GuiaCurso.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acaceres\Documents\statisticsEEBE\Curso 20-21 Q2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F42CEB25-22D3-4AF1-AC30-0DE9DAFB5678}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB617FB3-32BF-4B1B-BB7F-7C2C4A2073AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="96" windowWidth="13560" windowHeight="4356" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -290,9 +290,6 @@
     <t>Variables aleatorias y modelos</t>
   </si>
   <si>
-    <t>Sampleo y TCL</t>
-  </si>
-  <si>
     <t>CI y test de hipótesis</t>
   </si>
   <si>
@@ -360,6 +357,9 @@
   </si>
   <si>
     <t>Problemas TCL</t>
+  </si>
+  <si>
+    <t>Sampleo, TCL y Estimadores</t>
   </si>
 </sst>
 </file>
@@ -477,10 +477,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -821,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61:C61"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -837,11 +837,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
+      <c r="A1" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -889,11 +889,11 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
+      <c r="A8" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
@@ -927,11 +927,11 @@
       <c r="C13" s="3"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
+      <c r="A15" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
@@ -959,11 +959,11 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
+      <c r="A22" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
@@ -997,11 +997,11 @@
       <c r="C26" s="11"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
+      <c r="A29" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
@@ -1026,11 +1026,11 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
+      <c r="A36" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
@@ -1068,11 +1068,11 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
+      <c r="A43" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
@@ -1087,20 +1087,20 @@
         <v>30</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B47" s="14" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="15" t="s">
-        <v>100</v>
-      </c>
-    </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
+      <c r="A50" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
@@ -1116,7 +1116,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>64</v>
@@ -1132,11 +1132,11 @@
       <c r="C53" s="8"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
+      <c r="A56" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
@@ -1149,23 +1149,23 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B58" s="10" t="s">
         <v>101</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
+      <c r="A61" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B61" s="15"/>
+      <c r="C61" s="15"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
@@ -1178,7 +1178,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B63" s="10" t="s">
         <v>46</v>
@@ -1186,15 +1186,15 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
+      <c r="A67" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B67" s="15"/>
+      <c r="C67" s="15"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
@@ -1207,7 +1207,7 @@
         <v>67</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -1227,11 +1227,11 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
+      <c r="A73" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B73" s="15"/>
+      <c r="C73" s="15"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
@@ -1253,7 +1253,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>8</v>
@@ -1268,11 +1268,11 @@
       <c r="B78" s="10"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="B79" s="14"/>
-      <c r="C79" s="14"/>
+      <c r="A79" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B79" s="15"/>
+      <c r="C79" s="15"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
@@ -1292,11 +1292,11 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="B85" s="14"/>
-      <c r="C85" s="14"/>
+      <c r="A85" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B85" s="15"/>
+      <c r="C85" s="15"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
@@ -1344,7 +1344,7 @@
         <v>68</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -1359,6 +1359,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A79:C79"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A43:C43"/>
@@ -1367,12 +1373,6 @@
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="A79:C79"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Curso 20-21 Q2/GuiaCurso.xlsx
+++ b/Curso 20-21 Q2/GuiaCurso.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acaceres\Documents\statisticsEEBE\Curso 20-21 Q2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB617FB3-32BF-4B1B-BB7F-7C2C4A2073AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2365E156-C1FF-47A9-A88D-972AD6AC86F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="96" windowWidth="13560" windowHeight="4356" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,18 +22,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="103">
   <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Final exams</t>
-  </si>
-  <si>
-    <t>PRACTICAL EXAM 1: 8% (cummulative: 20%)</t>
-  </si>
-  <si>
-    <t>PRACTICAL EXAM 3: 8% (cummulative: 71%)</t>
   </si>
   <si>
     <r>
@@ -59,18 +50,6 @@
     </r>
   </si>
   <si>
-    <t>19/10/2020 a las 00.05h hasta 23/10/2020 a las 23.55h.</t>
-  </si>
-  <si>
-    <t>16/11/2020 a las 00.05h hasta 20/11/2020 a las 23.55h.</t>
-  </si>
-  <si>
-    <t>11/01/2021 a las 00.05h hasta 15/01/2021 a las 23.55h.</t>
-  </si>
-  <si>
-    <t>PRACTICAL EXAM 2: 8% (cummulative: 28%)</t>
-  </si>
-  <si>
     <t>8:30am-10:00am</t>
   </si>
   <si>
@@ -89,9 +68,6 @@
     <t>Lunes 15/03</t>
   </si>
   <si>
-    <t>Lunes 29/03</t>
-  </si>
-  <si>
     <t>Lunes 22/03</t>
   </si>
   <si>
@@ -119,9 +95,6 @@
     <t>Jueves 25/03</t>
   </si>
   <si>
-    <t>Jueves 1/04</t>
-  </si>
-  <si>
     <t>Jueves 8/04</t>
   </si>
   <si>
@@ -131,9 +104,6 @@
     <t>Jueves 22/04</t>
   </si>
   <si>
-    <t>NO LECTIVO</t>
-  </si>
-  <si>
     <t>FESTIVO</t>
   </si>
   <si>
@@ -182,21 +152,12 @@
     <t>Modelos VAC TEMA 5:  1,3,5,6,9,11,14,16,17,18</t>
   </si>
   <si>
-    <t>Estimadores</t>
-  </si>
-  <si>
     <t>Problemas estimadores</t>
   </si>
   <si>
-    <t>Intervalos de Confianza</t>
-  </si>
-  <si>
     <t>Problemas IC</t>
   </si>
   <si>
-    <t>Test de hipótesis</t>
-  </si>
-  <si>
     <t>Problemas Modelos VAC</t>
   </si>
   <si>
@@ -209,12 +170,6 @@
     <t>Problemas  VAD</t>
   </si>
   <si>
-    <t xml:space="preserve">XX </t>
-  </si>
-  <si>
-    <t>XX</t>
-  </si>
-  <si>
     <t>Problemas  VAC</t>
   </si>
   <si>
@@ -227,9 +182,6 @@
     <t>Cálculo de probabilidades</t>
   </si>
   <si>
-    <t>Problemas Probabilidades</t>
-  </si>
-  <si>
     <t>Problemas Bayes</t>
   </si>
   <si>
@@ -239,21 +191,12 @@
     <t>Teoría EXAMEN 2: 12% (acumulado: 40%)</t>
   </si>
   <si>
-    <t>06/02/2021, 13.35-14:55h</t>
-  </si>
-  <si>
-    <t>xx, 16:00-19.00h</t>
-  </si>
-  <si>
     <t>Teoría EXAMEN 3: 23% (acumulado: 63%)</t>
   </si>
   <si>
     <t>Teoría EXAMEN 4: 24%  (acumulado: 95%)</t>
   </si>
   <si>
-    <t>GENERAL COMPETENCE: 5%  (acumulado: 100%)</t>
-  </si>
-  <si>
     <t>Problemas test de hipótesis</t>
   </si>
   <si>
@@ -266,9 +209,6 @@
     <t>Estadística Descriptiva (Capítulo 1)</t>
   </si>
   <si>
-    <t>Pobabilidad (Capítulo 2)</t>
-  </si>
-  <si>
     <t>(Capítulo 3)</t>
   </si>
   <si>
@@ -284,12 +224,6 @@
     <t>TEMA 4: 2;7;8</t>
   </si>
   <si>
-    <t>Probabilidad</t>
-  </si>
-  <si>
-    <t>Variables aleatorias y modelos</t>
-  </si>
-  <si>
     <t>CI y test de hipótesis</t>
   </si>
   <si>
@@ -350,16 +284,73 @@
     <t>Teorema central del límite</t>
   </si>
   <si>
-    <t xml:space="preserve">Sampleo </t>
-  </si>
-  <si>
     <t>Sampleo: TEMA 6</t>
   </si>
   <si>
     <t>Problemas TCL</t>
   </si>
   <si>
-    <t>Sampleo, TCL y Estimadores</t>
+    <t>Lunes 26/04</t>
+  </si>
+  <si>
+    <t>Jueves 29/04</t>
+  </si>
+  <si>
+    <t>Exámenes finales</t>
+  </si>
+  <si>
+    <t>22/04;  15:35 Variables aleatorias y modelos</t>
+  </si>
+  <si>
+    <t>18/03; 15:35 Probabilidad</t>
+  </si>
+  <si>
+    <t>13/05, 15:35 Sampleo, TCL y Estimadores</t>
+  </si>
+  <si>
+    <t>Problemas Probabilidad</t>
+  </si>
+  <si>
+    <t>Competencia Genérica: 5%  (acumulado: 100%)</t>
+  </si>
+  <si>
+    <t>18/06; 16:00 Intervlo de confianza y test de hipótesis</t>
+  </si>
+  <si>
+    <t>PRACTICA 1: 8% (acumulado: 20%)</t>
+  </si>
+  <si>
+    <t>PRACTICA 2: 8% (acumulado: 28%)</t>
+  </si>
+  <si>
+    <t>PRACTICA 3: 8% (acumulado: 71%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pobabilidad </t>
+  </si>
+  <si>
+    <t>(Capítulo 2)</t>
+  </si>
+  <si>
+    <t>(Capítulo 6)</t>
+  </si>
+  <si>
+    <t>(Capítulo 7)</t>
+  </si>
+  <si>
+    <t>Sampleo  (Capítulo 8)</t>
+  </si>
+  <si>
+    <t>(Capítulo 8)</t>
+  </si>
+  <si>
+    <t>Estimadores (Capítulo 9)</t>
+  </si>
+  <si>
+    <t>Intervalos de Confianza (Capítulo 10)</t>
+  </si>
+  <si>
+    <t>Test de hipótesis (Capítulo 11)</t>
   </si>
 </sst>
 </file>
@@ -467,9 +458,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -478,6 +466,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -819,16 +810,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H96"/>
+  <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35.44140625" customWidth="1"/>
-    <col min="2" max="2" width="40.5546875" customWidth="1"/>
+    <col min="2" max="2" width="38.33203125" customWidth="1"/>
     <col min="3" max="3" width="47.5546875" customWidth="1"/>
     <col min="4" max="4" width="25.44140625" customWidth="1"/>
     <col min="5" max="5" width="23.6640625" customWidth="1"/>
@@ -838,7 +829,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -846,533 +837,523 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C3" s="3"/>
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>74</v>
+      <c r="A4" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10" t="s">
-        <v>52</v>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="H6" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
       <c r="H7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="3"/>
+      <c r="A10" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
+      <c r="A11" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" t="s">
         <v>53</v>
       </c>
-      <c r="B12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>62</v>
-      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B19" t="s">
-        <v>72</v>
-      </c>
+      <c r="A19" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>23</v>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B26" t="s">
-        <v>79</v>
-      </c>
-      <c r="C26" s="11"/>
+      <c r="A25" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
+      <c r="A29" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="3"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B35" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="15" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C38" s="3"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B40" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="5"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C47" s="3"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C41" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C42" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="14" t="s">
+      <c r="B48" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>80</v>
+      </c>
+      <c r="B49" s="9" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="B50" s="15"/>
-      <c r="C50" s="15"/>
-    </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C51" s="3"/>
+      <c r="A51" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D52" s="2" t="s">
+      <c r="A52" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" s="3"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>45</v>
-      </c>
-      <c r="C53" s="8"/>
+      <c r="B53" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="15" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="B56" s="15"/>
       <c r="C56" s="15"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C57" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B58" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B58" s="9" t="s">
         <v>101</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>103</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="15" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="B61" s="15"/>
       <c r="C61" s="15"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C63" s="8"/>
+      <c r="D63" s="2"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B66" s="15"/>
+      <c r="C66" s="15"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C67" s="3"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B62" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C62" s="3"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B63" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="15" t="s">
+      <c r="B68" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B70" s="15"/>
+      <c r="C70" s="15"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C71" s="3"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B75" s="15"/>
+      <c r="C75" s="15"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="14"/>
+      <c r="B76" t="s">
+        <v>0</v>
+      </c>
+      <c r="C76" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B67" s="15"/>
-      <c r="C67" s="15"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B69" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C69" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="B73" s="15"/>
-      <c r="C73" s="15"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C74" s="3"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C75" s="3"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B76" t="s">
-        <v>97</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C77" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B78" s="10"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="B79" s="15"/>
-      <c r="C79" s="15"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C80" s="3"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B81" s="10" t="s">
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C77" s="8"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C79" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="B85" s="15"/>
-      <c r="C85" s="15"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C86" s="3"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B88" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B91" t="s">
-        <v>55</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C92" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B94" t="s">
-        <v>56</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C95" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C96" s="7" t="s">
-        <v>66</v>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C80" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C81" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="100" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D100" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A70:C70"/>
     <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="A79:C79"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A36:C36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Curso 20-21 Q2/GuiaCurso.xlsx
+++ b/Curso 20-21 Q2/GuiaCurso.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acaceres\Documents\statisticsEEBE\Curso 20-21 Q2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2365E156-C1FF-47A9-A88D-972AD6AC86F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4343770-81D3-4D19-8E3A-ECE503297C89}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="96" windowWidth="13560" windowHeight="4356" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,6 +25,309 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="103">
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>8:30am-10:00am</t>
+  </si>
+  <si>
+    <t>Lunes 22/02</t>
+  </si>
+  <si>
+    <t>Jueves 25/02</t>
+  </si>
+  <si>
+    <t>Lunes 1/03</t>
+  </si>
+  <si>
+    <t>Lunes 8/03</t>
+  </si>
+  <si>
+    <t>Lunes 15/03</t>
+  </si>
+  <si>
+    <t>Lunes 22/03</t>
+  </si>
+  <si>
+    <t>Lunes 5/04</t>
+  </si>
+  <si>
+    <t>Lunes 12/04</t>
+  </si>
+  <si>
+    <t>Lunes 19/04</t>
+  </si>
+  <si>
+    <t>Lunes 03/05</t>
+  </si>
+  <si>
+    <t>Jueves 4/03</t>
+  </si>
+  <si>
+    <t>Jueves 11/03</t>
+  </si>
+  <si>
+    <t>Jueves 18/03</t>
+  </si>
+  <si>
+    <t>Jueves 25/03</t>
+  </si>
+  <si>
+    <t>Jueves 8/04</t>
+  </si>
+  <si>
+    <t>Jueves 15/04</t>
+  </si>
+  <si>
+    <t>Jueves 22/04</t>
+  </si>
+  <si>
+    <t>FESTIVO</t>
+  </si>
+  <si>
+    <t>Jueves 06/05</t>
+  </si>
+  <si>
+    <t>Lunes 10/05</t>
+  </si>
+  <si>
+    <t>Jueves 13/05</t>
+  </si>
+  <si>
+    <t>Jueves 20/05</t>
+  </si>
+  <si>
+    <t>Lunes 17/05</t>
+  </si>
+  <si>
+    <t>Lunes 24/05</t>
+  </si>
+  <si>
+    <t>Jueves 27/05</t>
+  </si>
+  <si>
+    <t>Lunes 31/05</t>
+  </si>
+  <si>
+    <t>Jueves 3/06</t>
+  </si>
+  <si>
+    <t>Teorema de Bayes</t>
+  </si>
+  <si>
+    <t>Variables aleatorias discretas</t>
+  </si>
+  <si>
+    <t>Variables aleatorias continuas</t>
+  </si>
+  <si>
+    <t>Modelos de VAD</t>
+  </si>
+  <si>
+    <t>Modelos VAC</t>
+  </si>
+  <si>
+    <t>Modelos VAC TEMA 5:  1,3,5,6,9,11,14,16,17,18</t>
+  </si>
+  <si>
+    <t>Problemas estimadores</t>
+  </si>
+  <si>
+    <t>Problemas IC</t>
+  </si>
+  <si>
+    <t>Problemas Modelos VAC</t>
+  </si>
+  <si>
+    <t>Probabiliad condicional</t>
+  </si>
+  <si>
+    <t>Independencia estadística</t>
+  </si>
+  <si>
+    <t>Problemas  VAD</t>
+  </si>
+  <si>
+    <t>Problemas  VAC</t>
+  </si>
+  <si>
+    <t>Estimadores TEMA 7: 4,7,8,10,12,14,16,18,20,22,24,26</t>
+  </si>
+  <si>
+    <t>Test de hipótesis TEMA 8</t>
+  </si>
+  <si>
+    <t>Cálculo de probabilidades</t>
+  </si>
+  <si>
+    <t>Problemas Bayes</t>
+  </si>
+  <si>
+    <t>Teoría EXAMEN 1:  12% (acumulado: 12%)</t>
+  </si>
+  <si>
+    <t>Teoría EXAMEN 2: 12% (acumulado: 40%)</t>
+  </si>
+  <si>
+    <t>Teoría EXAMEN 3: 23% (acumulado: 63%)</t>
+  </si>
+  <si>
+    <t>Teoría EXAMEN 4: 24%  (acumulado: 95%)</t>
+  </si>
+  <si>
+    <t>Problemas test de hipótesis</t>
+  </si>
+  <si>
+    <t>TEMA 3: 4;8;10;11a;12a</t>
+  </si>
+  <si>
+    <t>TEMA 3: 7;11b;12b;1;2</t>
+  </si>
+  <si>
+    <t>Estadística Descriptiva (Capítulo 1)</t>
+  </si>
+  <si>
+    <t>(Capítulo 3)</t>
+  </si>
+  <si>
+    <t>(Capítulo 4)</t>
+  </si>
+  <si>
+    <t>(Capítulo 5)</t>
+  </si>
+  <si>
+    <t>VAC TEMA 4: 1;3;4;5;6;9;11</t>
+  </si>
+  <si>
+    <t>TEMA 4: 2;7;8</t>
+  </si>
+  <si>
+    <t>CI y test de hipótesis</t>
+  </si>
+  <si>
+    <t>semana 1 Feb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">semana 2 Mar </t>
+  </si>
+  <si>
+    <t>semana 3 Mar</t>
+  </si>
+  <si>
+    <t>semana 4 Mar</t>
+  </si>
+  <si>
+    <t>semana 5 Mar</t>
+  </si>
+  <si>
+    <t>semana 6 Abr</t>
+  </si>
+  <si>
+    <t>semana 7 Abr</t>
+  </si>
+  <si>
+    <t>semana 8 Abr</t>
+  </si>
+  <si>
+    <t>semana 9 Abr</t>
+  </si>
+  <si>
+    <t>semana 10 May</t>
+  </si>
+  <si>
+    <t>semana 11 May</t>
+  </si>
+  <si>
+    <t>semana 12 May</t>
+  </si>
+  <si>
+    <t>semana 13 May</t>
+  </si>
+  <si>
+    <t>semana 14 Jun</t>
+  </si>
+  <si>
+    <t>IC TEMA 7: 1,2,3,5,6,9,13,15,17,19,21,23,25,27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Problemas Modelos VAD </t>
+  </si>
+  <si>
+    <t>Modelos VAD TEMA 5: 2,4,7,8,10,12,13,15</t>
+  </si>
+  <si>
+    <t>Problemas sampleo</t>
+  </si>
+  <si>
+    <t>Teorema central del límite</t>
+  </si>
+  <si>
+    <t>Sampleo: TEMA 6</t>
+  </si>
+  <si>
+    <t>Problemas TCL</t>
+  </si>
+  <si>
+    <t>Lunes 26/04</t>
+  </si>
+  <si>
+    <t>Jueves 29/04</t>
+  </si>
+  <si>
+    <t>Exámenes finales</t>
+  </si>
+  <si>
+    <t>22/04;  15:35 Variables aleatorias y modelos</t>
+  </si>
+  <si>
+    <t>18/03; 15:35 Probabilidad</t>
+  </si>
+  <si>
+    <t>13/05, 15:35 Sampleo, TCL y Estimadores</t>
+  </si>
+  <si>
+    <t>Problemas Probabilidad</t>
+  </si>
+  <si>
+    <t>Competencia Genérica: 5%  (acumulado: 100%)</t>
+  </si>
+  <si>
+    <t>18/06; 16:00 Intervlo de confianza y test de hipótesis</t>
+  </si>
+  <si>
+    <t>PRACTICA 1: 8% (acumulado: 20%)</t>
+  </si>
+  <si>
+    <t>PRACTICA 2: 8% (acumulado: 28%)</t>
+  </si>
+  <si>
+    <t>PRACTICA 3: 8% (acumulado: 71%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pobabilidad </t>
+  </si>
+  <si>
+    <t>(Capítulo 2)</t>
+  </si>
+  <si>
+    <t>(Capítulo 6)</t>
+  </si>
+  <si>
+    <t>(Capítulo 7)</t>
+  </si>
+  <si>
+    <t>Sampleo  (Capítulo 8)</t>
+  </si>
+  <si>
+    <t>(Capítulo 8)</t>
+  </si>
+  <si>
+    <t>Estimadores (Capítulo 9)</t>
+  </si>
+  <si>
+    <t>Intervalos de Confianza (Capítulo 10)</t>
+  </si>
+  <si>
+    <t>Test de hipótesis (Capítulo 11)</t>
   </si>
   <si>
     <r>
@@ -46,311 +349,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: meet.google.com/ysy-zchq-izx</t>
+      <t>: meet.google.com/xjd-qhdy-azx</t>
     </r>
-  </si>
-  <si>
-    <t>8:30am-10:00am</t>
-  </si>
-  <si>
-    <t>Lunes 22/02</t>
-  </si>
-  <si>
-    <t>Jueves 25/02</t>
-  </si>
-  <si>
-    <t>Lunes 1/03</t>
-  </si>
-  <si>
-    <t>Lunes 8/03</t>
-  </si>
-  <si>
-    <t>Lunes 15/03</t>
-  </si>
-  <si>
-    <t>Lunes 22/03</t>
-  </si>
-  <si>
-    <t>Lunes 5/04</t>
-  </si>
-  <si>
-    <t>Lunes 12/04</t>
-  </si>
-  <si>
-    <t>Lunes 19/04</t>
-  </si>
-  <si>
-    <t>Lunes 03/05</t>
-  </si>
-  <si>
-    <t>Jueves 4/03</t>
-  </si>
-  <si>
-    <t>Jueves 11/03</t>
-  </si>
-  <si>
-    <t>Jueves 18/03</t>
-  </si>
-  <si>
-    <t>Jueves 25/03</t>
-  </si>
-  <si>
-    <t>Jueves 8/04</t>
-  </si>
-  <si>
-    <t>Jueves 15/04</t>
-  </si>
-  <si>
-    <t>Jueves 22/04</t>
-  </si>
-  <si>
-    <t>FESTIVO</t>
-  </si>
-  <si>
-    <t>Jueves 06/05</t>
-  </si>
-  <si>
-    <t>Lunes 10/05</t>
-  </si>
-  <si>
-    <t>Jueves 13/05</t>
-  </si>
-  <si>
-    <t>Jueves 20/05</t>
-  </si>
-  <si>
-    <t>Lunes 17/05</t>
-  </si>
-  <si>
-    <t>Lunes 24/05</t>
-  </si>
-  <si>
-    <t>Jueves 27/05</t>
-  </si>
-  <si>
-    <t>Lunes 31/05</t>
-  </si>
-  <si>
-    <t>Jueves 3/06</t>
-  </si>
-  <si>
-    <t>Teorema de Bayes</t>
-  </si>
-  <si>
-    <t>Variables aleatorias discretas</t>
-  </si>
-  <si>
-    <t>Variables aleatorias continuas</t>
-  </si>
-  <si>
-    <t>Modelos de VAD</t>
-  </si>
-  <si>
-    <t>Modelos VAC</t>
-  </si>
-  <si>
-    <t>Modelos VAC TEMA 5:  1,3,5,6,9,11,14,16,17,18</t>
-  </si>
-  <si>
-    <t>Problemas estimadores</t>
-  </si>
-  <si>
-    <t>Problemas IC</t>
-  </si>
-  <si>
-    <t>Problemas Modelos VAC</t>
-  </si>
-  <si>
-    <t>Probabiliad condicional</t>
-  </si>
-  <si>
-    <t>Independencia estadística</t>
-  </si>
-  <si>
-    <t>Problemas  VAD</t>
-  </si>
-  <si>
-    <t>Problemas  VAC</t>
-  </si>
-  <si>
-    <t>Estimadores TEMA 7: 4,7,8,10,12,14,16,18,20,22,24,26</t>
-  </si>
-  <si>
-    <t>Test de hipótesis TEMA 8</t>
-  </si>
-  <si>
-    <t>Cálculo de probabilidades</t>
-  </si>
-  <si>
-    <t>Problemas Bayes</t>
-  </si>
-  <si>
-    <t>Teoría EXAMEN 1:  12% (acumulado: 12%)</t>
-  </si>
-  <si>
-    <t>Teoría EXAMEN 2: 12% (acumulado: 40%)</t>
-  </si>
-  <si>
-    <t>Teoría EXAMEN 3: 23% (acumulado: 63%)</t>
-  </si>
-  <si>
-    <t>Teoría EXAMEN 4: 24%  (acumulado: 95%)</t>
-  </si>
-  <si>
-    <t>Problemas test de hipótesis</t>
-  </si>
-  <si>
-    <t>TEMA 3: 4;8;10;11a;12a</t>
-  </si>
-  <si>
-    <t>TEMA 3: 7;11b;12b;1;2</t>
-  </si>
-  <si>
-    <t>Estadística Descriptiva (Capítulo 1)</t>
-  </si>
-  <si>
-    <t>(Capítulo 3)</t>
-  </si>
-  <si>
-    <t>(Capítulo 4)</t>
-  </si>
-  <si>
-    <t>(Capítulo 5)</t>
-  </si>
-  <si>
-    <t>VAC TEMA 4: 1;3;4;5;6;9;11</t>
-  </si>
-  <si>
-    <t>TEMA 4: 2;7;8</t>
-  </si>
-  <si>
-    <t>CI y test de hipótesis</t>
-  </si>
-  <si>
-    <t>semana 1 Feb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">semana 2 Mar </t>
-  </si>
-  <si>
-    <t>semana 3 Mar</t>
-  </si>
-  <si>
-    <t>semana 4 Mar</t>
-  </si>
-  <si>
-    <t>semana 5 Mar</t>
-  </si>
-  <si>
-    <t>semana 6 Abr</t>
-  </si>
-  <si>
-    <t>semana 7 Abr</t>
-  </si>
-  <si>
-    <t>semana 8 Abr</t>
-  </si>
-  <si>
-    <t>semana 9 Abr</t>
-  </si>
-  <si>
-    <t>semana 10 May</t>
-  </si>
-  <si>
-    <t>semana 11 May</t>
-  </si>
-  <si>
-    <t>semana 12 May</t>
-  </si>
-  <si>
-    <t>semana 13 May</t>
-  </si>
-  <si>
-    <t>semana 14 Jun</t>
-  </si>
-  <si>
-    <t>IC TEMA 7: 1,2,3,5,6,9,13,15,17,19,21,23,25,27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Problemas Modelos VAD </t>
-  </si>
-  <si>
-    <t>Modelos VAD TEMA 5: 2,4,7,8,10,12,13,15</t>
-  </si>
-  <si>
-    <t>Problemas sampleo</t>
-  </si>
-  <si>
-    <t>Teorema central del límite</t>
-  </si>
-  <si>
-    <t>Sampleo: TEMA 6</t>
-  </si>
-  <si>
-    <t>Problemas TCL</t>
-  </si>
-  <si>
-    <t>Lunes 26/04</t>
-  </si>
-  <si>
-    <t>Jueves 29/04</t>
-  </si>
-  <si>
-    <t>Exámenes finales</t>
-  </si>
-  <si>
-    <t>22/04;  15:35 Variables aleatorias y modelos</t>
-  </si>
-  <si>
-    <t>18/03; 15:35 Probabilidad</t>
-  </si>
-  <si>
-    <t>13/05, 15:35 Sampleo, TCL y Estimadores</t>
-  </si>
-  <si>
-    <t>Problemas Probabilidad</t>
-  </si>
-  <si>
-    <t>Competencia Genérica: 5%  (acumulado: 100%)</t>
-  </si>
-  <si>
-    <t>18/06; 16:00 Intervlo de confianza y test de hipótesis</t>
-  </si>
-  <si>
-    <t>PRACTICA 1: 8% (acumulado: 20%)</t>
-  </si>
-  <si>
-    <t>PRACTICA 2: 8% (acumulado: 28%)</t>
-  </si>
-  <si>
-    <t>PRACTICA 3: 8% (acumulado: 71%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pobabilidad </t>
-  </si>
-  <si>
-    <t>(Capítulo 2)</t>
-  </si>
-  <si>
-    <t>(Capítulo 6)</t>
-  </si>
-  <si>
-    <t>(Capítulo 7)</t>
-  </si>
-  <si>
-    <t>Sampleo  (Capítulo 8)</t>
-  </si>
-  <si>
-    <t>(Capítulo 8)</t>
-  </si>
-  <si>
-    <t>Estimadores (Capítulo 9)</t>
-  </si>
-  <si>
-    <t>Intervalos de Confianza (Capítulo 10)</t>
-  </si>
-  <si>
-    <t>Test de hipótesis (Capítulo 11)</t>
   </si>
 </sst>
 </file>
@@ -813,7 +813,7 @@
   <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -829,7 +829,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -837,41 +837,41 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="C3" s="3"/>
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
       <c r="B5" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H6" t="s">
         <v>0</v>
@@ -879,7 +879,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -889,418 +889,418 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C27" s="3"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" t="s">
         <v>57</v>
-      </c>
-      <c r="B29" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B35" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C38" s="5"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B41" s="15"/>
       <c r="C41" s="15"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D43" s="2"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B46" s="15"/>
       <c r="C46" s="15"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="C47" s="3"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B48" s="9" t="s">
         <v>78</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B51" s="15"/>
       <c r="C51" s="15"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C52" s="3"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B56" s="15"/>
       <c r="C56" s="15"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="C57" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B61" s="15"/>
       <c r="C61" s="15"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C63" s="8"/>
       <c r="D63" s="2"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B66" s="15"/>
       <c r="C66" s="15"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B67" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="C67" s="3"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B70" s="15"/>
       <c r="C70" s="15"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B71" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="C71" s="3"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B75" s="15"/>
       <c r="C75" s="15"/>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
@@ -1319,22 +1319,22 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C79" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C80" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C81" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="100" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D100" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/Curso 20-21 Q2/GuiaCurso.xlsx
+++ b/Curso 20-21 Q2/GuiaCurso.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20370"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20371"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acaceres\Documents\statisticsEEBE\Curso 20-21 Q2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4343770-81D3-4D19-8E3A-ECE503297C89}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A12677-0BCE-4328-AC7C-1AFCDA0150B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="96" windowWidth="13560" windowHeight="4356" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -162,18 +162,6 @@
     <t>Problemas Bayes</t>
   </si>
   <si>
-    <t>Teoría EXAMEN 1:  12% (acumulado: 12%)</t>
-  </si>
-  <si>
-    <t>Teoría EXAMEN 2: 12% (acumulado: 40%)</t>
-  </si>
-  <si>
-    <t>Teoría EXAMEN 3: 23% (acumulado: 63%)</t>
-  </si>
-  <si>
-    <t>Teoría EXAMEN 4: 24%  (acumulado: 95%)</t>
-  </si>
-  <si>
     <t>Problemas test de hipótesis</t>
   </si>
   <si>
@@ -288,21 +276,12 @@
     <t>Problemas Probabilidad</t>
   </si>
   <si>
-    <t>Competencia Genérica: 5%  (acumulado: 100%)</t>
-  </si>
-  <si>
     <t>18/06; 16:00 Intervlo de confianza y test de hipótesis</t>
   </si>
   <si>
-    <t>PRACTICA 1: 8% (acumulado: 20%)</t>
-  </si>
-  <si>
     <t>PRACTICA 2: 8% (acumulado: 28%)</t>
   </si>
   <si>
-    <t>PRACTICA 3: 8% (acumulado: 71%)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pobabilidad </t>
   </si>
   <si>
@@ -328,6 +307,27 @@
   </si>
   <si>
     <t>Test de hipótesis (Capítulo 11)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teoría EXAMEN 1:  10% </t>
+  </si>
+  <si>
+    <t>PRACTICA 1: 8%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teoría EXAMEN 2: 20% </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teoría EXAMEN 3: 20% </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRACTICA 3: 8% </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teoría EXAMEN 4: 21%  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Competencia Genérica: 5%  </t>
   </si>
   <si>
     <r>
@@ -349,7 +349,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: meet.google.com/xjd-qhdy-azx</t>
+      <t>: meet.google.com/ysy-zchq-izx</t>
     </r>
   </si>
 </sst>
@@ -813,7 +813,7 @@
   <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -829,7 +829,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -855,10 +855,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="H4" s="2"/>
     </row>
@@ -871,7 +871,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="H6" t="s">
         <v>0</v>
@@ -879,7 +879,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -900,7 +900,7 @@
         <v>44</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C9" s="3"/>
     </row>
@@ -909,17 +909,17 @@
         <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
@@ -943,15 +943,15 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
@@ -964,7 +964,7 @@
         <v>14</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="D21" s="2"/>
     </row>
@@ -976,20 +976,20 @@
         <v>40</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
@@ -1001,7 +1001,9 @@
       <c r="B27" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="3"/>
+      <c r="C27" s="5" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
@@ -1010,18 +1012,19 @@
       <c r="B28" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="C28" s="5"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="15" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
@@ -1044,12 +1047,12 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B35" s="9" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="15" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
@@ -1061,30 +1064,26 @@
       <c r="B37" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C37" s="5" t="s">
-        <v>90</v>
-      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="5"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="13" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="15" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B41" s="15"/>
       <c r="C41" s="15"/>
@@ -1097,7 +1096,7 @@
         <v>18</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1105,10 +1104,10 @@
         <v>37</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D43" s="2"/>
     </row>
@@ -1119,39 +1118,42 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="15" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B46" s="15"/>
       <c r="C46" s="15"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C47" s="3"/>
+        <v>78</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>78</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="C48" s="8"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="15" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B51" s="15"/>
       <c r="C51" s="15"/>
@@ -1167,20 +1169,20 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="15" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B56" s="15"/>
       <c r="C56" s="15"/>
@@ -1193,7 +1195,7 @@
         <v>22</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -1201,10 +1203,10 @@
         <v>35</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -1214,7 +1216,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B61" s="15"/>
       <c r="C61" s="15"/>
@@ -1226,28 +1228,24 @@
       <c r="B62" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C62" s="5" t="s">
-        <v>91</v>
-      </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="9" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C63" s="8"/>
       <c r="D63" s="2"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="15" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B66" s="15"/>
       <c r="C66" s="15"/>
@@ -1266,12 +1264,12 @@
         <v>19</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="15" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B70" s="15"/>
       <c r="C70" s="15"/>
@@ -1287,10 +1285,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
@@ -1300,7 +1298,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="15" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B75" s="15"/>
       <c r="C75" s="15"/>
@@ -1311,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
@@ -1319,22 +1317,22 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C79" s="4" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C80" s="10" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C81" s="4" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
     </row>
     <row r="100" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D100" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Curso 20-21 Q2/GuiaCurso.xlsx
+++ b/Curso 20-21 Q2/GuiaCurso.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acaceres\Documents\statisticsEEBE\Curso 20-21 Q2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A12677-0BCE-4328-AC7C-1AFCDA0150B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB3D794-328E-44B5-8F05-725BAAA2118C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="96" windowWidth="13560" windowHeight="4356" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -812,7 +812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>

--- a/Curso 20-21 Q2/GuiaCurso.xlsx
+++ b/Curso 20-21 Q2/GuiaCurso.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acaceres\Documents\statisticsEEBE\Curso 20-21 Q2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB3D794-328E-44B5-8F05-725BAAA2118C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87DDFF95-0C7E-49E3-ADB9-1F315D79AA1F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="96" windowWidth="13560" windowHeight="4356" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,9 +25,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="103">
   <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>8:30am-10:00am</t>
   </si>
   <si>
     <t>Lunes 22/02</t>
@@ -351,6 +348,9 @@
       </rPr>
       <t>: meet.google.com/ysy-zchq-izx</t>
     </r>
+  </si>
+  <si>
+    <t>8:00am-9:00am</t>
   </si>
 </sst>
 </file>
@@ -812,8 +812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -829,7 +829,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -837,41 +837,41 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="C3" s="3"/>
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
       <c r="B5" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H6" t="s">
         <v>0</v>
@@ -879,7 +879,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -889,416 +889,416 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C28" s="5"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" t="s">
         <v>52</v>
-      </c>
-      <c r="B29" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B35" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B41" s="15"/>
       <c r="C41" s="15"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D43" s="2"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B46" s="15"/>
       <c r="C46" s="15"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="C47" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B48" s="9" t="s">
         <v>73</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>74</v>
       </c>
       <c r="C48" s="8"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B51" s="15"/>
       <c r="C51" s="15"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C52" s="3"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B56" s="15"/>
       <c r="C56" s="15"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="C57" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B61" s="15"/>
       <c r="C61" s="15"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D63" s="2"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B66" s="15"/>
       <c r="C66" s="15"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B67" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="C67" s="3"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70" s="15"/>
       <c r="C70" s="15"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B71" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="C71" s="3"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B75" s="15"/>
       <c r="C75" s="15"/>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
@@ -1317,22 +1317,22 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C79" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C80" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C81" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="100" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D100" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/Curso 20-21 Q2/GuiaCurso.xlsx
+++ b/Curso 20-21 Q2/GuiaCurso.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20371"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20372"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acaceres\Documents\statisticsEEBE\Curso 20-21 Q2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87DDFF95-0C7E-49E3-ADB9-1F315D79AA1F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B49BAD-B336-4C1E-832D-D90E7941FCD8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="96" windowWidth="13560" windowHeight="4356" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="101">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -114,39 +114,21 @@
     <t>Variables aleatorias discretas</t>
   </si>
   <si>
-    <t>Variables aleatorias continuas</t>
-  </si>
-  <si>
     <t>Modelos de VAD</t>
   </si>
   <si>
-    <t>Modelos VAC</t>
-  </si>
-  <si>
-    <t>Modelos VAC TEMA 5:  1,3,5,6,9,11,14,16,17,18</t>
-  </si>
-  <si>
     <t>Problemas estimadores</t>
   </si>
   <si>
     <t>Problemas IC</t>
   </si>
   <si>
-    <t>Problemas Modelos VAC</t>
-  </si>
-  <si>
     <t>Probabiliad condicional</t>
   </si>
   <si>
     <t>Independencia estadística</t>
   </si>
   <si>
-    <t>Problemas  VAD</t>
-  </si>
-  <si>
-    <t>Problemas  VAC</t>
-  </si>
-  <si>
     <t>Estimadores TEMA 7: 4,7,8,10,12,14,16,18,20,22,24,26</t>
   </si>
   <si>
@@ -165,9 +147,6 @@
     <t>TEMA 3: 4;8;10;11a;12a</t>
   </si>
   <si>
-    <t>TEMA 3: 7;11b;12b;1;2</t>
-  </si>
-  <si>
     <t>Estadística Descriptiva (Capítulo 1)</t>
   </si>
   <si>
@@ -180,12 +159,6 @@
     <t>(Capítulo 5)</t>
   </si>
   <si>
-    <t>VAC TEMA 4: 1;3;4;5;6;9;11</t>
-  </si>
-  <si>
-    <t>TEMA 4: 2;7;8</t>
-  </si>
-  <si>
     <t>CI y test de hipótesis</t>
   </si>
   <si>
@@ -204,9 +177,6 @@
     <t>semana 5 Mar</t>
   </si>
   <si>
-    <t>semana 6 Abr</t>
-  </si>
-  <si>
     <t>semana 7 Abr</t>
   </si>
   <si>
@@ -234,12 +204,6 @@
     <t>IC TEMA 7: 1,2,3,5,6,9,13,15,17,19,21,23,25,27</t>
   </si>
   <si>
-    <t xml:space="preserve">Problemas Modelos VAD </t>
-  </si>
-  <si>
-    <t>Modelos VAD TEMA 5: 2,4,7,8,10,12,13,15</t>
-  </si>
-  <si>
     <t>Problemas sampleo</t>
   </si>
   <si>
@@ -289,21 +253,6 @@
   </si>
   <si>
     <t>(Capítulo 7)</t>
-  </si>
-  <si>
-    <t>Sampleo  (Capítulo 8)</t>
-  </si>
-  <si>
-    <t>(Capítulo 8)</t>
-  </si>
-  <si>
-    <t>Estimadores (Capítulo 9)</t>
-  </si>
-  <si>
-    <t>Intervalos de Confianza (Capítulo 10)</t>
-  </si>
-  <si>
-    <t>Test de hipótesis (Capítulo 11)</t>
   </si>
   <si>
     <t xml:space="preserve">Teoría EXAMEN 1:  10% </t>
@@ -351,6 +300,51 @@
   </si>
   <si>
     <t>8:00am-9:00am</t>
+  </si>
+  <si>
+    <t>TEMA 3: 9c, 11b;12b;1;2,3,5</t>
+  </si>
+  <si>
+    <t>Modelos de VAD (Capítulo 5)</t>
+  </si>
+  <si>
+    <t>Variables aleatorias continuas y sus modelos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Problemas Modelos </t>
+  </si>
+  <si>
+    <t>Problemas variables aleatorias</t>
+  </si>
+  <si>
+    <t>Sampleo  (Capítulo 7)</t>
+  </si>
+  <si>
+    <t>Estimadores (Capítulo 8)</t>
+  </si>
+  <si>
+    <t>Intervalos de Confianza (Capítulo 9)</t>
+  </si>
+  <si>
+    <t>Test de hipótesis (Capítulo 10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2;7;8</t>
+  </si>
+  <si>
+    <t>1,3,5,6,9</t>
+  </si>
+  <si>
+    <t>semana 6 Abr</t>
+  </si>
+  <si>
+    <t>8,12,13,15</t>
+  </si>
+  <si>
+    <t>2,7,11,14,18,10</t>
+  </si>
+  <si>
+    <t>3;4;5;6;9;11</t>
   </si>
 </sst>
 </file>
@@ -465,13 +459,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -812,13 +806,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.44140625" customWidth="1"/>
+    <col min="1" max="1" width="42.88671875" customWidth="1"/>
     <col min="2" max="2" width="38.33203125" customWidth="1"/>
     <col min="3" max="3" width="47.5546875" customWidth="1"/>
     <col min="4" max="4" width="25.44140625" customWidth="1"/>
@@ -828,19 +822,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
+      <c r="A1" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -855,34 +849,34 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
       <c r="B5" s="9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="H6" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
+      <c r="A7" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
       <c r="H7" t="s">
         <v>0</v>
       </c>
@@ -897,32 +891,32 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
+      <c r="A13" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -938,23 +932,23 @@
         <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
@@ -964,7 +958,7 @@
         <v>13</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="D21" s="2"/>
     </row>
@@ -973,26 +967,31 @@
         <v>29</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
@@ -1002,7 +1001,7 @@
         <v>14</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1010,24 +1009,29 @@
         <v>30</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="C28" s="5"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29" t="s">
-        <v>52</v>
+        <v>44</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B30" s="9" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
+      <c r="A31" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
@@ -1042,20 +1046,20 @@
         <v>18</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B35" s="9" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
+      <c r="A36" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
@@ -1067,26 +1071,26 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>32</v>
+        <v>90</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>88</v>
+      <c r="A39" t="s">
+        <v>100</v>
+      </c>
+      <c r="B39" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
+      <c r="A41" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
@@ -1096,67 +1100,70 @@
         <v>17</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="D43" s="2"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>33</v>
-      </c>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="2"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
+      <c r="A46" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C48" s="8"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="B51" s="15"/>
-      <c r="C51" s="15"/>
+      <c r="A51" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
@@ -1169,23 +1176,23 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B56" s="15"/>
-      <c r="C56" s="15"/>
+      <c r="A56" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
@@ -1195,31 +1202,31 @@
         <v>21</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B61" s="15"/>
-      <c r="C61" s="15"/>
+      <c r="A61" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
@@ -1231,24 +1238,24 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D63" s="2"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B66" s="15"/>
-      <c r="C66" s="15"/>
+      <c r="A66" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
@@ -1264,15 +1271,15 @@
         <v>18</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B70" s="15"/>
-      <c r="C70" s="15"/>
+      <c r="A70" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
@@ -1285,31 +1292,31 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="B75" s="15"/>
-      <c r="C75" s="15"/>
+      <c r="A75" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="14"/>
+      <c r="A76" s="13"/>
       <c r="B76" t="s">
         <v>0</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
@@ -1317,29 +1324,28 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C79" s="4" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C80" s="10" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C81" s="4" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
     </row>
     <row r="100" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D100" s="2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="A75:C75"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A31:C31"/>
     <mergeCell ref="A36:C36"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A13:C13"/>
@@ -1352,6 +1358,7 @@
     <mergeCell ref="A66:C66"/>
     <mergeCell ref="A70:C70"/>
     <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A31:C31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
